--- a/biology/Médecine/8-Hydroxyquinoléine/8-Hydroxyquinoléine.xlsx
+++ b/biology/Médecine/8-Hydroxyquinoléine/8-Hydroxyquinoléine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8-Hydroxyquinol%C3%A9ine</t>
+          <t>8-Hydroxyquinoléine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La 8-hydroxyquinoléine est un composé organique de formule brute C9H7NO. Il s'agit d'un dérivé de la quinoléine, hydroxylé sur le carbone 8, qui se présente sous forme d'un solide à cristaux incolores d'usage très répandu comme chélateur, comme antiseptique, ou encore comme pesticide, sous un grand nombre de dénominations parallèles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8-Hydroxyquinol%C3%A9ine</t>
+          <t>8-Hydroxyquinoléine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La 8-hydroxyquinoléine est un chélateur bidentate monoprotique formant des chélates avec les bases de Schiff dérivées du salicylaldéhyde, telles que le salicylaldoxime et le salen. En solution aqueuse à pH neutre, l'hydroxyle est protoné (pKa = 9,89) tandis que l'azote ne l'est pas (pKa = 5,13)[4], mais il existe un état excité dans lequel l'azote reçoit un proton de l'hydroxyle, donnant un zwitterion avec un anion d'oxygène et un cation d'azote protoné[5].
-La 8-hydroxyquinoléine et ses chélates présentent des propriétés antiseptiques, désinfectantes et pesticides[6],[7].
-La réaction de la 8-hydroxyquinoléine avec l'aluminium(III) conduisent au tris(8-hydroxyquinoléine)aluminium(III) (Alq3)[8], un composé couramment utilisé pour réaliser des diodes électroluminescentes organiques (OLED) dont les variations dans les substituants du noyau quinoléine permettent de moduler la luminescence[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 8-hydroxyquinoléine est un chélateur bidentate monoprotique formant des chélates avec les bases de Schiff dérivées du salicylaldéhyde, telles que le salicylaldoxime et le salen. En solution aqueuse à pH neutre, l'hydroxyle est protoné (pKa = 9,89) tandis que l'azote ne l'est pas (pKa = 5,13), mais il existe un état excité dans lequel l'azote reçoit un proton de l'hydroxyle, donnant un zwitterion avec un anion d'oxygène et un cation d'azote protoné.
+La 8-hydroxyquinoléine et ses chélates présentent des propriétés antiseptiques, désinfectantes et pesticides,.
+La réaction de la 8-hydroxyquinoléine avec l'aluminium(III) conduisent au tris(8-hydroxyquinoléine)aluminium(III) (Alq3), un composé couramment utilisé pour réaliser des diodes électroluminescentes organiques (OLED) dont les variations dans les substituants du noyau quinoléine permettent de moduler la luminescence.
 </t>
         </is>
       </c>
